--- a/KPG_EE_KPI_defs_per_Chart_v5.xlsx
+++ b/KPG_EE_KPI_defs_per_Chart_v5.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\EE UK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
@@ -19,9 +14,12 @@
     <sheet name="Hour 2G" sheetId="6" r:id="rId5"/>
     <sheet name="Hour 5G" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4G'!$A$1:$E$341</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -7338,8 +7336,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7752,7 +7750,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -7787,7 +7785,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -7964,22 +7962,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -7988,7 +7986,7 @@
     <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -8005,7 +8003,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -8022,7 +8020,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="28.8">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8039,7 +8037,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -8056,7 +8054,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28.8">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -8073,7 +8071,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -8090,7 +8088,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -8107,7 +8105,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -8124,7 +8122,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -8141,7 +8139,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -8158,7 +8156,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -8175,7 +8173,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="43.2">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -8192,7 +8190,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="43.2">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -8209,7 +8207,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -8226,7 +8224,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -8243,7 +8241,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -8260,7 +8258,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -8277,7 +8275,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -8294,7 +8292,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -8311,7 +8309,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -8328,7 +8326,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -8345,7 +8343,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -8362,7 +8360,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -8379,7 +8377,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -8396,7 +8394,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="28.8">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -8413,7 +8411,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
         <v>17</v>
       </c>
@@ -8430,7 +8428,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
         <v>17</v>
       </c>
@@ -8447,7 +8445,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
         <v>17</v>
       </c>
@@ -8464,7 +8462,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="72">
       <c r="A29" s="6" t="s">
         <v>17</v>
       </c>
@@ -8481,7 +8479,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
         <v>17</v>
       </c>
@@ -8498,7 +8496,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="28.8">
       <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
@@ -8515,7 +8513,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="43.2">
       <c r="A32" s="6" t="s">
         <v>17</v>
       </c>
@@ -8532,7 +8530,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="28.8">
       <c r="A33" s="6" t="s">
         <v>17</v>
       </c>
@@ -8549,7 +8547,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="28.8">
       <c r="A34" s="6" t="s">
         <v>17</v>
       </c>
@@ -8566,7 +8564,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="28.8">
       <c r="A35" s="6" t="s">
         <v>17</v>
       </c>
@@ -8583,7 +8581,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="28.8">
       <c r="A36" s="6" t="s">
         <v>17</v>
       </c>
@@ -8600,7 +8598,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="28.8">
       <c r="A37" s="6" t="s">
         <v>17</v>
       </c>
@@ -8617,7 +8615,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="28.8">
       <c r="A38" s="6" t="s">
         <v>17</v>
       </c>
@@ -8634,7 +8632,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="28.8">
       <c r="A39" s="6" t="s">
         <v>17</v>
       </c>
@@ -8651,7 +8649,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="28.8">
       <c r="A40" s="6" t="s">
         <v>17</v>
       </c>
@@ -8668,7 +8666,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="28.8">
       <c r="A41" s="6" t="s">
         <v>17</v>
       </c>
@@ -8685,7 +8683,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="43.2">
       <c r="A42" s="6" t="s">
         <v>17</v>
       </c>
@@ -8702,7 +8700,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="6" t="s">
         <v>17</v>
       </c>
@@ -8719,7 +8717,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="43.2">
       <c r="A44" s="6" t="s">
         <v>17</v>
       </c>
@@ -8736,7 +8734,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="6" t="s">
         <v>17</v>
       </c>
@@ -8753,7 +8751,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="28.8">
       <c r="A46" s="6" t="s">
         <v>17</v>
       </c>
@@ -8770,7 +8768,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="28.8">
       <c r="A47" s="6" t="s">
         <v>17</v>
       </c>
@@ -8787,7 +8785,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="6" t="s">
         <v>17</v>
       </c>
@@ -8804,7 +8802,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="28.8">
       <c r="A49" s="6" t="s">
         <v>17</v>
       </c>
@@ -8821,7 +8819,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="6" t="s">
         <v>17</v>
       </c>
@@ -8838,7 +8836,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="6" t="s">
         <v>17</v>
       </c>
@@ -8855,7 +8853,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="28.8">
       <c r="A52" s="6" t="s">
         <v>17</v>
       </c>
@@ -8872,7 +8870,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="28.8">
       <c r="A53" s="6" t="s">
         <v>17</v>
       </c>
@@ -8889,7 +8887,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="28.8">
       <c r="A54" s="6" t="s">
         <v>17</v>
       </c>
@@ -8906,7 +8904,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="28.8">
       <c r="A55" s="6" t="s">
         <v>17</v>
       </c>
@@ -8923,7 +8921,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="6" t="s">
         <v>17</v>
       </c>
@@ -8940,7 +8938,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="6" t="s">
         <v>17</v>
       </c>
@@ -8957,7 +8955,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="6" t="s">
         <v>17</v>
       </c>
@@ -8974,7 +8972,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="6" t="s">
         <v>17</v>
       </c>
@@ -8991,7 +8989,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="22" t="s">
         <v>52</v>
       </c>
@@ -9008,7 +9006,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="28.8">
       <c r="A61" s="9" t="s">
         <v>52</v>
       </c>
@@ -9025,7 +9023,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="9" t="s">
         <v>52</v>
       </c>
@@ -9042,7 +9040,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="43.2">
       <c r="A63" s="9" t="s">
         <v>52</v>
       </c>
@@ -9059,7 +9057,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="9" t="s">
         <v>52</v>
       </c>
@@ -9076,7 +9074,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="28.8">
       <c r="A65" s="9" t="s">
         <v>52</v>
       </c>
@@ -9093,7 +9091,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="28.8">
       <c r="A66" s="9" t="s">
         <v>52</v>
       </c>
@@ -9110,7 +9108,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="28.8">
       <c r="A67" s="9" t="s">
         <v>52</v>
       </c>
@@ -9127,7 +9125,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="43.2">
       <c r="A68" s="9" t="s">
         <v>52</v>
       </c>
@@ -9144,7 +9142,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="28.8">
       <c r="A69" s="9" t="s">
         <v>52</v>
       </c>
@@ -9161,7 +9159,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="9" t="s">
         <v>52</v>
       </c>
@@ -9178,7 +9176,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="28.8">
       <c r="A71" s="9" t="s">
         <v>52</v>
       </c>
@@ -9195,7 +9193,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" s="9" t="s">
         <v>52</v>
       </c>
@@ -9212,7 +9210,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="28.8">
       <c r="A73" s="9" t="s">
         <v>52</v>
       </c>
@@ -9229,7 +9227,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="28.8">
       <c r="A74" s="9" t="s">
         <v>52</v>
       </c>
@@ -9246,7 +9244,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="28.8">
       <c r="A75" s="9" t="s">
         <v>52</v>
       </c>
@@ -9263,7 +9261,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="28.8">
       <c r="A76" s="9" t="s">
         <v>52</v>
       </c>
@@ -9280,7 +9278,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="28.8">
       <c r="A77" s="9" t="s">
         <v>52</v>
       </c>
@@ -9297,7 +9295,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" s="9" t="s">
         <v>52</v>
       </c>
@@ -9314,7 +9312,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="28.8">
       <c r="A79" s="9" t="s">
         <v>52</v>
       </c>
@@ -9331,7 +9329,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" s="9" t="s">
         <v>52</v>
       </c>
@@ -9348,7 +9346,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="28.8">
       <c r="A81" s="9" t="s">
         <v>52</v>
       </c>
@@ -9365,7 +9363,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" s="9" t="s">
         <v>52</v>
       </c>
@@ -9382,7 +9380,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="43.2">
       <c r="A83" s="9" t="s">
         <v>52</v>
       </c>
@@ -9399,7 +9397,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" s="9" t="s">
         <v>52</v>
       </c>
@@ -9416,7 +9414,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" s="9" t="s">
         <v>52</v>
       </c>
@@ -9433,7 +9431,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" s="9" t="s">
         <v>52</v>
       </c>
@@ -9450,7 +9448,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" s="9" t="s">
         <v>52</v>
       </c>
@@ -9467,7 +9465,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" s="9" t="s">
         <v>52</v>
       </c>
@@ -9484,7 +9482,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="28.8">
       <c r="A89" s="9" t="s">
         <v>52</v>
       </c>
@@ -9501,7 +9499,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" s="9" t="s">
         <v>52</v>
       </c>
@@ -9518,7 +9516,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="28.8">
       <c r="A91" s="9" t="s">
         <v>52</v>
       </c>
@@ -9535,7 +9533,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92" s="6" t="s">
         <v>78</v>
       </c>
@@ -9552,7 +9550,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="86.4">
       <c r="A93" s="6" t="s">
         <v>78</v>
       </c>
@@ -9569,7 +9567,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94" s="6" t="s">
         <v>78</v>
       </c>
@@ -9586,7 +9584,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="28.8">
       <c r="A95" s="6" t="s">
         <v>78</v>
       </c>
@@ -9603,7 +9601,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="28.8">
       <c r="A96" s="6" t="s">
         <v>78</v>
       </c>
@@ -9620,7 +9618,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="28.8">
       <c r="A97" s="6" t="s">
         <v>78</v>
       </c>
@@ -9637,7 +9635,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="57.6">
       <c r="A98" s="6" t="s">
         <v>78</v>
       </c>
@@ -9654,7 +9652,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="28.8">
       <c r="A99" s="6" t="s">
         <v>78</v>
       </c>
@@ -9671,7 +9669,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="43.2">
       <c r="A100" s="6" t="s">
         <v>78</v>
       </c>
@@ -9688,7 +9686,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="43.2">
       <c r="A101" s="6" t="s">
         <v>78</v>
       </c>
@@ -9705,7 +9703,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="57.6">
       <c r="A102" s="6" t="s">
         <v>78</v>
       </c>
@@ -9722,7 +9720,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="57.6">
       <c r="A103" s="6" t="s">
         <v>78</v>
       </c>
@@ -9739,7 +9737,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="28.8">
       <c r="A104" s="6" t="s">
         <v>78</v>
       </c>
@@ -9756,7 +9754,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105" s="6" t="s">
         <v>78</v>
       </c>
@@ -9773,7 +9771,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5">
       <c r="A106" s="6" t="s">
         <v>78</v>
       </c>
@@ -9790,7 +9788,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5">
       <c r="A107" s="6" t="s">
         <v>78</v>
       </c>
@@ -9807,7 +9805,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
         <v>78</v>
       </c>
@@ -9824,7 +9822,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5">
       <c r="A109" s="6" t="s">
         <v>78</v>
       </c>
@@ -9841,7 +9839,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5">
       <c r="A110" s="6" t="s">
         <v>78</v>
       </c>
@@ -9858,7 +9856,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5">
       <c r="A111" s="6" t="s">
         <v>78</v>
       </c>
@@ -9875,7 +9873,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5">
       <c r="A112" s="6" t="s">
         <v>78</v>
       </c>
@@ -9892,7 +9890,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" s="6" t="s">
         <v>78</v>
       </c>
@@ -9909,7 +9907,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="28.8">
       <c r="A114" s="6" t="s">
         <v>78</v>
       </c>
@@ -9926,7 +9924,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="28.8">
       <c r="A115" s="6" t="s">
         <v>78</v>
       </c>
@@ -9943,7 +9941,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="28.8">
       <c r="A116" s="6" t="s">
         <v>78</v>
       </c>
@@ -9960,7 +9958,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="28.8">
       <c r="A117" s="6" t="s">
         <v>78</v>
       </c>
@@ -9977,7 +9975,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="43.2">
       <c r="A118" s="9" t="s">
         <v>102</v>
       </c>
@@ -9994,7 +9992,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="55.2">
       <c r="A119" s="22" t="s">
         <v>102</v>
       </c>
@@ -10011,7 +10009,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5">
       <c r="A120" s="22" t="s">
         <v>102</v>
       </c>
@@ -10028,7 +10026,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="115.2">
       <c r="A121" s="22" t="s">
         <v>102</v>
       </c>
@@ -10045,7 +10043,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="28.8">
       <c r="A122" s="9" t="s">
         <v>102</v>
       </c>
@@ -10062,7 +10060,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="43.2">
       <c r="A123" s="9" t="s">
         <v>102</v>
       </c>
@@ -10079,7 +10077,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="28.8">
       <c r="A124" s="9" t="s">
         <v>102</v>
       </c>
@@ -10096,7 +10094,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="43.2">
       <c r="A125" s="9" t="s">
         <v>102</v>
       </c>
@@ -10113,7 +10111,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="43.2">
       <c r="A126" s="9" t="s">
         <v>102</v>
       </c>
@@ -10130,7 +10128,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="28.8">
       <c r="A127" s="9" t="s">
         <v>102</v>
       </c>
@@ -10147,7 +10145,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="115.2">
       <c r="A128" s="9" t="s">
         <v>102</v>
       </c>
@@ -10164,7 +10162,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="28.8">
       <c r="A129" s="9" t="s">
         <v>102</v>
       </c>
@@ -10181,7 +10179,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5">
       <c r="A130" s="26" t="s">
         <v>108</v>
       </c>
@@ -10198,7 +10196,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5">
       <c r="A131" s="26" t="s">
         <v>108</v>
       </c>
@@ -10215,7 +10213,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="28.8">
       <c r="A132" s="26" t="s">
         <v>108</v>
       </c>
@@ -10232,7 +10230,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="28.8">
       <c r="A133" s="26" t="s">
         <v>108</v>
       </c>
@@ -10249,7 +10247,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="28.8">
       <c r="A134" s="26" t="s">
         <v>108</v>
       </c>
@@ -10266,7 +10264,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5">
       <c r="A135" s="26" t="s">
         <v>108</v>
       </c>
@@ -10283,7 +10281,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5">
       <c r="A136" s="26" t="s">
         <v>108</v>
       </c>
@@ -10300,7 +10298,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5">
       <c r="A137" s="26" t="s">
         <v>108</v>
       </c>
@@ -10317,7 +10315,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5">
       <c r="A138" s="26" t="s">
         <v>108</v>
       </c>
@@ -10334,7 +10332,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5">
       <c r="A139" s="26" t="s">
         <v>108</v>
       </c>
@@ -10351,7 +10349,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5">
       <c r="A140" s="29" t="s">
         <v>108</v>
       </c>
@@ -10368,7 +10366,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5">
       <c r="A141" s="26" t="s">
         <v>108</v>
       </c>
@@ -10385,7 +10383,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5">
       <c r="A142" s="26" t="s">
         <v>108</v>
       </c>
@@ -10402,7 +10400,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5">
       <c r="A143" s="26" t="s">
         <v>108</v>
       </c>
@@ -10419,7 +10417,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5">
       <c r="A144" s="26" t="s">
         <v>108</v>
       </c>
@@ -10436,7 +10434,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5">
       <c r="A145" s="26" t="s">
         <v>108</v>
       </c>
@@ -10453,7 +10451,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="51" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="51">
       <c r="A146" s="26" t="s">
         <v>108</v>
       </c>
@@ -10470,7 +10468,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="51" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="51">
       <c r="A147" s="26" t="s">
         <v>108</v>
       </c>
@@ -10487,7 +10485,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="86.4">
       <c r="A148" s="26" t="s">
         <v>108</v>
       </c>
@@ -10504,7 +10502,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="28.8">
       <c r="A149" s="26" t="s">
         <v>108</v>
       </c>
@@ -10521,7 +10519,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5">
       <c r="A150" s="26" t="s">
         <v>108</v>
       </c>
@@ -10538,7 +10536,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5">
       <c r="A151" s="26" t="s">
         <v>108</v>
       </c>
@@ -10555,7 +10553,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="72">
       <c r="A152" s="31" t="s">
         <v>108</v>
       </c>
@@ -10572,7 +10570,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="72">
       <c r="A153" s="26" t="s">
         <v>108</v>
       </c>
@@ -10589,7 +10587,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5">
       <c r="A154" s="26" t="s">
         <v>108</v>
       </c>
@@ -10606,7 +10604,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5">
       <c r="A155" s="26" t="s">
         <v>108</v>
       </c>
@@ -10623,7 +10621,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5">
       <c r="A156" s="26" t="s">
         <v>108</v>
       </c>
@@ -10640,7 +10638,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="43.2">
       <c r="A157" s="26" t="s">
         <v>108</v>
       </c>
@@ -10657,7 +10655,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="72">
       <c r="A158" s="26" t="s">
         <v>108</v>
       </c>
@@ -10674,7 +10672,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="72">
       <c r="A159" s="29" t="s">
         <v>108</v>
       </c>
@@ -10691,7 +10689,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5">
       <c r="A160" s="26" t="s">
         <v>108</v>
       </c>
@@ -10708,7 +10706,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5">
       <c r="A161" s="29" t="s">
         <v>108</v>
       </c>
@@ -10725,7 +10723,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5">
       <c r="A162" s="29" t="s">
         <v>108</v>
       </c>
@@ -10742,7 +10740,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5">
       <c r="A163" s="29" t="s">
         <v>108</v>
       </c>
@@ -10759,7 +10757,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5">
       <c r="A164" s="29" t="s">
         <v>108</v>
       </c>
@@ -10774,7 +10772,7 @@
       </c>
       <c r="E164" s="26"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5">
       <c r="A165" s="29" t="s">
         <v>108</v>
       </c>
@@ -10789,7 +10787,7 @@
       </c>
       <c r="E165" s="26"/>
     </row>
-    <row r="166" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="57.6">
       <c r="A166" s="29" t="s">
         <v>108</v>
       </c>
@@ -10806,7 +10804,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="57.6">
       <c r="A167" s="29" t="s">
         <v>108</v>
       </c>
@@ -10823,7 +10821,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="28.8">
       <c r="A168" s="12" t="s">
         <v>131</v>
       </c>
@@ -10840,7 +10838,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5">
       <c r="A169" s="12" t="s">
         <v>131</v>
       </c>
@@ -10857,7 +10855,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="48.6">
       <c r="A170" s="12" t="s">
         <v>131</v>
       </c>
@@ -10874,7 +10872,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="126.6" customHeight="1">
       <c r="A171" s="12" t="s">
         <v>131</v>
       </c>
@@ -10891,7 +10889,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="108" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="108">
       <c r="A172" s="12" t="s">
         <v>131</v>
       </c>
@@ -10908,7 +10906,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="108" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="108">
       <c r="A173" s="12" t="s">
         <v>131</v>
       </c>
@@ -10925,7 +10923,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5">
       <c r="A174" s="12" t="s">
         <v>131</v>
       </c>
@@ -10940,7 +10938,7 @@
       </c>
       <c r="E174" s="14"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5">
       <c r="A175" s="12" t="s">
         <v>131</v>
       </c>
@@ -10955,7 +10953,7 @@
       </c>
       <c r="E175" s="14"/>
     </row>
-    <row r="176" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="43.2">
       <c r="A176" s="12" t="s">
         <v>131</v>
       </c>
@@ -10972,7 +10970,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="57.6">
       <c r="A177" s="12" t="s">
         <v>131</v>
       </c>
@@ -10989,7 +10987,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="57.6">
       <c r="A178" s="12" t="s">
         <v>131</v>
       </c>
@@ -11006,7 +11004,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="57.6">
       <c r="A179" s="12" t="s">
         <v>131</v>
       </c>
@@ -11023,7 +11021,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="60.6">
       <c r="A180" s="12" t="s">
         <v>131</v>
       </c>
@@ -11040,7 +11038,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="60.6">
       <c r="A181" s="12" t="s">
         <v>131</v>
       </c>
@@ -11057,7 +11055,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="57.6">
       <c r="A182" s="12" t="s">
         <v>131</v>
       </c>
@@ -11074,7 +11072,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="57.6">
       <c r="A183" s="12" t="s">
         <v>131</v>
       </c>
@@ -11091,7 +11089,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5">
       <c r="A184" s="12" t="s">
         <v>131</v>
       </c>
@@ -11108,7 +11106,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5">
       <c r="A185" s="12" t="s">
         <v>131</v>
       </c>
@@ -11125,7 +11123,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5">
       <c r="A186" s="12" t="s">
         <v>131</v>
       </c>
@@ -11142,7 +11140,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5">
       <c r="A187" s="12" t="s">
         <v>131</v>
       </c>
@@ -11159,7 +11157,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="180.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="144.6">
       <c r="A188" s="12" t="s">
         <v>131</v>
       </c>
@@ -11176,7 +11174,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5">
       <c r="A189" s="12" t="s">
         <v>131</v>
       </c>
@@ -11191,7 +11189,7 @@
       </c>
       <c r="E189" s="14"/>
     </row>
-    <row r="190" spans="1:5" ht="246" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="246">
       <c r="A190" s="6" t="s">
         <v>153</v>
       </c>
@@ -11208,7 +11206,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="57.6">
       <c r="A191" s="6" t="s">
         <v>153</v>
       </c>
@@ -11225,7 +11223,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5">
       <c r="A192" s="6" t="s">
         <v>153</v>
       </c>
@@ -11240,7 +11238,7 @@
       </c>
       <c r="E192" s="8"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5">
       <c r="A193" s="6" t="s">
         <v>153</v>
       </c>
@@ -11257,7 +11255,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5">
       <c r="A194" s="6" t="s">
         <v>153</v>
       </c>
@@ -11274,7 +11272,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5">
       <c r="A195" s="6" t="s">
         <v>153</v>
       </c>
@@ -11291,7 +11289,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5">
       <c r="A196" s="6" t="s">
         <v>153</v>
       </c>
@@ -11308,7 +11306,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5">
       <c r="A197" s="6" t="s">
         <v>153</v>
       </c>
@@ -11325,7 +11323,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5">
       <c r="A198" s="6" t="s">
         <v>153</v>
       </c>
@@ -11342,7 +11340,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5">
       <c r="A199" s="9" t="s">
         <v>163</v>
       </c>
@@ -11359,7 +11357,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5">
       <c r="A200" s="9" t="s">
         <v>163</v>
       </c>
@@ -11376,7 +11374,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5">
       <c r="A201" s="9" t="s">
         <v>163</v>
       </c>
@@ -11393,7 +11391,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5">
       <c r="A202" s="9" t="s">
         <v>163</v>
       </c>
@@ -11410,7 +11408,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5">
       <c r="A203" s="9" t="s">
         <v>163</v>
       </c>
@@ -11427,7 +11425,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5">
       <c r="A204" s="9" t="s">
         <v>163</v>
       </c>
@@ -11444,7 +11442,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5">
       <c r="A205" s="9" t="s">
         <v>163</v>
       </c>
@@ -11461,7 +11459,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5">
       <c r="A206" s="9" t="s">
         <v>163</v>
       </c>
@@ -11478,7 +11476,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5">
       <c r="A207" s="9" t="s">
         <v>163</v>
       </c>
@@ -11495,7 +11493,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5">
       <c r="A208" s="9" t="s">
         <v>163</v>
       </c>
@@ -11512,7 +11510,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5">
       <c r="A209" s="9" t="s">
         <v>163</v>
       </c>
@@ -11529,7 +11527,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="28.8">
       <c r="A210" s="9" t="s">
         <v>163</v>
       </c>
@@ -11546,7 +11544,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5">
       <c r="A211" s="9" t="s">
         <v>163</v>
       </c>
@@ -11563,7 +11561,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="28.8">
       <c r="A212" s="9" t="s">
         <v>163</v>
       </c>
@@ -11580,7 +11578,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5">
       <c r="A213" s="9" t="s">
         <v>163</v>
       </c>
@@ -11597,7 +11595,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5">
       <c r="A214" s="9" t="s">
         <v>163</v>
       </c>
@@ -11614,7 +11612,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5">
       <c r="A215" s="9" t="s">
         <v>163</v>
       </c>
@@ -11631,7 +11629,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5">
       <c r="A216" s="9" t="s">
         <v>163</v>
       </c>
@@ -11648,7 +11646,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="28.8">
       <c r="A217" s="9" t="s">
         <v>163</v>
       </c>
@@ -11665,7 +11663,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5">
       <c r="A218" s="9" t="s">
         <v>163</v>
       </c>
@@ -11682,7 +11680,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" ht="28.8">
       <c r="A219" s="9" t="s">
         <v>163</v>
       </c>
@@ -11699,7 +11697,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5">
       <c r="A220" s="9" t="s">
         <v>163</v>
       </c>
@@ -11716,7 +11714,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="28.8">
       <c r="A221" s="9" t="s">
         <v>163</v>
       </c>
@@ -11733,7 +11731,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="28.8">
       <c r="A222" s="9" t="s">
         <v>163</v>
       </c>
@@ -11750,7 +11748,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="28.8">
       <c r="A223" s="9" t="s">
         <v>163</v>
       </c>
@@ -11767,7 +11765,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="28.8">
       <c r="A224" s="9" t="s">
         <v>163</v>
       </c>
@@ -11784,7 +11782,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" ht="28.8">
       <c r="A225" s="9" t="s">
         <v>163</v>
       </c>
@@ -11801,7 +11799,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" ht="28.8">
       <c r="A226" s="9" t="s">
         <v>163</v>
       </c>
@@ -11818,7 +11816,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" ht="43.2">
       <c r="A227" s="56" t="s">
         <v>183</v>
       </c>
@@ -11835,7 +11833,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" ht="28.8">
       <c r="A228" s="56" t="s">
         <v>183</v>
       </c>
@@ -11852,7 +11850,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" ht="28.8">
       <c r="A229" s="56" t="s">
         <v>183</v>
       </c>
@@ -11869,7 +11867,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5">
       <c r="A230" s="56" t="s">
         <v>183</v>
       </c>
@@ -11886,7 +11884,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" ht="43.2">
       <c r="A231" s="56" t="s">
         <v>183</v>
       </c>
@@ -11903,7 +11901,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="28.8">
       <c r="A232" s="56" t="s">
         <v>183</v>
       </c>
@@ -11920,7 +11918,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="28.8">
       <c r="A233" s="56" t="s">
         <v>183</v>
       </c>
@@ -11937,7 +11935,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5">
       <c r="A234" s="56" t="s">
         <v>183</v>
       </c>
@@ -11954,7 +11952,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" ht="43.2">
       <c r="A235" s="56" t="s">
         <v>183</v>
       </c>
@@ -11971,7 +11969,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" ht="28.8">
       <c r="A236" s="56" t="s">
         <v>183</v>
       </c>
@@ -11988,7 +11986,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" ht="28.8">
       <c r="A237" s="56" t="s">
         <v>183</v>
       </c>
@@ -12005,7 +12003,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" ht="72">
       <c r="A238" s="56" t="s">
         <v>183</v>
       </c>
@@ -12022,7 +12020,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" ht="28.8">
       <c r="A239" s="56" t="s">
         <v>183</v>
       </c>
@@ -12039,7 +12037,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5">
       <c r="A240" s="56" t="s">
         <v>183</v>
       </c>
@@ -12056,7 +12054,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5">
       <c r="A241" s="56" t="s">
         <v>183</v>
       </c>
@@ -12073,7 +12071,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5">
       <c r="A242" s="56" t="s">
         <v>183</v>
       </c>
@@ -12090,7 +12088,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" ht="28.8">
       <c r="A243" s="56" t="s">
         <v>183</v>
       </c>
@@ -12107,7 +12105,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5">
       <c r="A244" s="56" t="s">
         <v>183</v>
       </c>
@@ -12124,7 +12122,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5">
       <c r="A245" s="56" t="s">
         <v>183</v>
       </c>
@@ -12141,7 +12139,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5">
       <c r="A246" s="56" t="s">
         <v>183</v>
       </c>
@@ -12158,7 +12156,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5">
       <c r="A247" s="56" t="s">
         <v>183</v>
       </c>
@@ -12175,7 +12173,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5">
       <c r="A248" s="56" t="s">
         <v>183</v>
       </c>
@@ -12192,7 +12190,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="28.8">
       <c r="A249" s="6" t="s">
         <v>203</v>
       </c>
@@ -12209,7 +12207,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" ht="28.8">
       <c r="A250" s="6" t="s">
         <v>203</v>
       </c>
@@ -12226,7 +12224,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5">
       <c r="A251" s="6" t="s">
         <v>203</v>
       </c>
@@ -12243,7 +12241,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5">
       <c r="A252" s="6" t="s">
         <v>203</v>
       </c>
@@ -12260,7 +12258,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" ht="57.6">
       <c r="A253" s="6" t="s">
         <v>203</v>
       </c>
@@ -12277,7 +12275,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" ht="57.6">
       <c r="A254" s="6" t="s">
         <v>203</v>
       </c>
@@ -12294,7 +12292,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" ht="28.8">
       <c r="A255" s="6" t="s">
         <v>203</v>
       </c>
@@ -12311,7 +12309,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" ht="43.2">
       <c r="A256" s="6" t="s">
         <v>203</v>
       </c>
@@ -12328,7 +12326,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" ht="43.2">
       <c r="A257" s="6" t="s">
         <v>203</v>
       </c>
@@ -12345,7 +12343,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" ht="43.2">
       <c r="A258" s="6" t="s">
         <v>203</v>
       </c>
@@ -12362,7 +12360,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" ht="28.8">
       <c r="A259" s="6" t="s">
         <v>203</v>
       </c>
@@ -12379,7 +12377,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5">
       <c r="A260" s="6" t="s">
         <v>203</v>
       </c>
@@ -12396,7 +12394,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5">
       <c r="A261" s="6" t="s">
         <v>203</v>
       </c>
@@ -12413,7 +12411,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5">
       <c r="A262" s="6" t="s">
         <v>203</v>
       </c>
@@ -12430,7 +12428,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" ht="28.8">
       <c r="A263" s="6" t="s">
         <v>203</v>
       </c>
@@ -12447,7 +12445,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" ht="28.8">
       <c r="A264" s="6" t="s">
         <v>203</v>
       </c>
@@ -12464,7 +12462,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5">
       <c r="A265" s="6" t="s">
         <v>203</v>
       </c>
@@ -12481,7 +12479,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5">
       <c r="A266" s="6" t="s">
         <v>203</v>
       </c>
@@ -12498,7 +12496,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" ht="28.8">
       <c r="A267" s="6" t="s">
         <v>203</v>
       </c>
@@ -12515,7 +12513,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" ht="43.2">
       <c r="A268" s="6" t="s">
         <v>203</v>
       </c>
@@ -12532,7 +12530,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" ht="28.8">
       <c r="A269" s="6" t="s">
         <v>203</v>
       </c>
@@ -12549,7 +12547,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" ht="43.2">
       <c r="A270" s="6" t="s">
         <v>203</v>
       </c>
@@ -12566,7 +12564,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" ht="43.2">
       <c r="A271" s="6" t="s">
         <v>203</v>
       </c>
@@ -12583,7 +12581,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" ht="43.2">
       <c r="A272" s="6" t="s">
         <v>203</v>
       </c>
@@ -12600,7 +12598,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" ht="43.2">
       <c r="A273" s="9" t="s">
         <v>220</v>
       </c>
@@ -12617,7 +12615,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" ht="72">
       <c r="A274" s="9" t="s">
         <v>220</v>
       </c>
@@ -12634,7 +12632,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" ht="28.8">
       <c r="A275" s="9" t="s">
         <v>220</v>
       </c>
@@ -12651,7 +12649,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" ht="57.6">
       <c r="A276" s="9" t="s">
         <v>220</v>
       </c>
@@ -12668,7 +12666,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" ht="43.2">
       <c r="A277" s="9" t="s">
         <v>220</v>
       </c>
@@ -12685,7 +12683,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" ht="43.2">
       <c r="A278" s="9" t="s">
         <v>220</v>
       </c>
@@ -12702,7 +12700,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5">
       <c r="A279" s="9" t="s">
         <v>220</v>
       </c>
@@ -12719,7 +12717,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" ht="28.8">
       <c r="A280" s="9" t="s">
         <v>220</v>
       </c>
@@ -12736,7 +12734,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5">
       <c r="A281" s="9" t="s">
         <v>220</v>
       </c>
@@ -12753,7 +12751,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5">
       <c r="A282" s="9" t="s">
         <v>220</v>
       </c>
@@ -12770,7 +12768,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5">
       <c r="A283" s="9" t="s">
         <v>220</v>
       </c>
@@ -12787,7 +12785,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" ht="28.8">
       <c r="A284" s="9" t="s">
         <v>220</v>
       </c>
@@ -12804,7 +12802,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5">
       <c r="A285" s="9" t="s">
         <v>220</v>
       </c>
@@ -12821,7 +12819,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5">
       <c r="A286" s="9" t="s">
         <v>220</v>
       </c>
@@ -12838,7 +12836,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" ht="28.8">
       <c r="A287" s="9" t="s">
         <v>220</v>
       </c>
@@ -12855,7 +12853,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" ht="28.8">
       <c r="A288" s="9" t="s">
         <v>220</v>
       </c>
@@ -12872,7 +12870,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" ht="28.8">
       <c r="A289" s="9" t="s">
         <v>220</v>
       </c>
@@ -12889,7 +12887,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" ht="28.8">
       <c r="A290" s="9" t="s">
         <v>220</v>
       </c>
@@ -12906,7 +12904,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" ht="43.2">
       <c r="A291" s="26" t="s">
         <v>238</v>
       </c>
@@ -12923,7 +12921,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5">
       <c r="A292" s="26" t="s">
         <v>238</v>
       </c>
@@ -12940,7 +12938,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" ht="28.8">
       <c r="A293" s="26" t="s">
         <v>238</v>
       </c>
@@ -12957,7 +12955,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5">
       <c r="A294" s="26" t="s">
         <v>238</v>
       </c>
@@ -12974,7 +12972,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" ht="43.2">
       <c r="A295" s="26" t="s">
         <v>238</v>
       </c>
@@ -12991,7 +12989,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5">
       <c r="A296" s="26" t="s">
         <v>238</v>
       </c>
@@ -13008,7 +13006,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" ht="43.2">
       <c r="A297" s="26" t="s">
         <v>238</v>
       </c>
@@ -13025,7 +13023,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5">
       <c r="A298" s="26" t="s">
         <v>238</v>
       </c>
@@ -13042,7 +13040,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5">
       <c r="A299" s="26" t="s">
         <v>238</v>
       </c>
@@ -13059,7 +13057,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" ht="28.8">
       <c r="A300" s="26" t="s">
         <v>238</v>
       </c>
@@ -13076,7 +13074,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5">
       <c r="A301" s="26" t="s">
         <v>238</v>
       </c>
@@ -13093,7 +13091,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5">
       <c r="A302" s="26" t="s">
         <v>238</v>
       </c>
@@ -13110,7 +13108,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5">
       <c r="A303" s="26" t="s">
         <v>238</v>
       </c>
@@ -13127,7 +13125,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5">
       <c r="A304" s="26" t="s">
         <v>238</v>
       </c>
@@ -13144,7 +13142,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" ht="28.8">
       <c r="A305" s="26" t="s">
         <v>238</v>
       </c>
@@ -13161,7 +13159,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" ht="28.8">
       <c r="A306" s="26" t="s">
         <v>238</v>
       </c>
@@ -13178,7 +13176,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5">
       <c r="A307" s="26" t="s">
         <v>238</v>
       </c>
@@ -13195,7 +13193,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5">
       <c r="A308" s="26" t="s">
         <v>238</v>
       </c>
@@ -13212,7 +13210,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5">
       <c r="A309" s="26" t="s">
         <v>238</v>
       </c>
@@ -13229,7 +13227,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5">
       <c r="A310" s="26" t="s">
         <v>238</v>
       </c>
@@ -13246,7 +13244,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5">
       <c r="A311" s="26" t="s">
         <v>238</v>
       </c>
@@ -13263,7 +13261,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5">
       <c r="A312" s="26" t="s">
         <v>238</v>
       </c>
@@ -13280,7 +13278,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5">
       <c r="A313" s="26" t="s">
         <v>238</v>
       </c>
@@ -13297,7 +13295,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5">
       <c r="A314" s="26" t="s">
         <v>238</v>
       </c>
@@ -13314,7 +13312,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" ht="28.8">
       <c r="A315" s="26" t="s">
         <v>238</v>
       </c>
@@ -13331,7 +13329,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" ht="28.8">
       <c r="A316" s="26" t="s">
         <v>238</v>
       </c>
@@ -13348,7 +13346,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" ht="28.8">
       <c r="A317" s="26" t="s">
         <v>238</v>
       </c>
@@ -13365,7 +13363,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5">
       <c r="A318" s="26" t="s">
         <v>238</v>
       </c>
@@ -13382,7 +13380,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" ht="28.8">
       <c r="A319" s="26" t="s">
         <v>238</v>
       </c>
@@ -13399,7 +13397,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5">
       <c r="A320" s="26" t="s">
         <v>238</v>
       </c>
@@ -13416,7 +13414,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" ht="28.8">
       <c r="A321" s="26" t="s">
         <v>238</v>
       </c>
@@ -13433,7 +13431,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" ht="28.8">
       <c r="A322" s="26" t="s">
         <v>238</v>
       </c>
@@ -13450,7 +13448,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" ht="28.8">
       <c r="A323" s="26" t="s">
         <v>238</v>
       </c>
@@ -13467,7 +13465,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5">
       <c r="A324" s="26" t="s">
         <v>238</v>
       </c>
@@ -13484,7 +13482,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" ht="28.8">
       <c r="A325" s="26" t="s">
         <v>238</v>
       </c>
@@ -13501,7 +13499,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5">
       <c r="A326" s="26" t="s">
         <v>238</v>
       </c>
@@ -13518,7 +13516,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5">
       <c r="A327" s="26" t="s">
         <v>238</v>
       </c>
@@ -13531,7 +13529,7 @@
       <c r="D327" s="28"/>
       <c r="E327" s="26"/>
     </row>
-    <row r="328" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" ht="28.8">
       <c r="A328" s="26" t="s">
         <v>238</v>
       </c>
@@ -13548,7 +13546,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5">
       <c r="A329" s="26" t="s">
         <v>238</v>
       </c>
@@ -13565,7 +13563,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5">
       <c r="A330" s="26" t="s">
         <v>238</v>
       </c>
@@ -13582,7 +13580,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5">
       <c r="A331" s="26" t="s">
         <v>238</v>
       </c>
@@ -13599,7 +13597,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5">
       <c r="A332" s="26" t="s">
         <v>238</v>
       </c>
@@ -13616,7 +13614,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" ht="43.2">
       <c r="A333" s="26" t="s">
         <v>238</v>
       </c>
@@ -13633,7 +13631,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" ht="43.2">
       <c r="A334" s="26" t="s">
         <v>238</v>
       </c>
@@ -13650,7 +13648,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5">
       <c r="A335" s="26" t="s">
         <v>238</v>
       </c>
@@ -13667,7 +13665,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5">
       <c r="A336" s="26" t="s">
         <v>238</v>
       </c>
@@ -13684,7 +13682,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" ht="28.8">
       <c r="A337" s="26" t="s">
         <v>238</v>
       </c>
@@ -13701,7 +13699,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5">
       <c r="A338" s="26" t="s">
         <v>238</v>
       </c>
@@ -13714,7 +13712,7 @@
       <c r="D338" s="28"/>
       <c r="E338" s="26"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5">
       <c r="A339" s="9" t="s">
         <v>1460</v>
       </c>
@@ -13731,7 +13729,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5">
       <c r="A340" s="9" t="s">
         <v>1460</v>
       </c>
@@ -13748,7 +13746,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5">
       <c r="A341" s="9" t="s">
         <v>1460</v>
       </c>
@@ -13766,13 +13764,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E341"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -13780,7 +13779,7 @@
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -13789,7 +13788,7 @@
     <col min="5" max="5" width="42.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -13806,7 +13805,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -13823,7 +13822,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -13840,7 +13839,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -13857,7 +13856,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28.8">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -13874,7 +13873,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -13891,7 +13890,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -13908,7 +13907,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -13925,7 +13924,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -13942,7 +13941,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -13959,7 +13958,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -13976,7 +13975,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -13993,7 +13992,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -14010,7 +14009,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -14027,7 +14026,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -14044,7 +14043,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.8">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -14061,7 +14060,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -14078,7 +14077,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -14095,7 +14094,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>858</v>
       </c>
@@ -14112,7 +14111,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
         <v>858</v>
       </c>
@@ -14129,7 +14128,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
         <v>858</v>
       </c>
@@ -14146,7 +14145,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="28.8">
       <c r="A22" s="6" t="s">
         <v>858</v>
       </c>
@@ -14163,7 +14162,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
         <v>858</v>
       </c>
@@ -14180,7 +14179,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
         <v>858</v>
       </c>
@@ -14197,7 +14196,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="43.2">
       <c r="A25" s="6" t="s">
         <v>858</v>
       </c>
@@ -14214,7 +14213,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="43.2">
       <c r="A26" s="6" t="s">
         <v>858</v>
       </c>
@@ -14231,7 +14230,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="28.8">
       <c r="A27" s="6" t="s">
         <v>858</v>
       </c>
@@ -14248,7 +14247,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
         <v>858</v>
       </c>
@@ -14265,7 +14264,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="9" t="s">
         <v>875</v>
       </c>
@@ -14282,7 +14281,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="9" t="s">
         <v>875</v>
       </c>
@@ -14299,7 +14298,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="9" t="s">
         <v>875</v>
       </c>
@@ -14316,7 +14315,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="9" t="s">
         <v>875</v>
       </c>
@@ -14333,7 +14332,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="9" t="s">
         <v>875</v>
       </c>
@@ -14350,7 +14349,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="9" t="s">
         <v>875</v>
       </c>
@@ -14367,7 +14366,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="9" t="s">
         <v>875</v>
       </c>
@@ -14384,7 +14383,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="9" t="s">
         <v>875</v>
       </c>
@@ -14401,7 +14400,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="28.8">
       <c r="A37" s="9" t="s">
         <v>875</v>
       </c>
@@ -14418,7 +14417,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="9" t="s">
         <v>875</v>
       </c>
@@ -14435,7 +14434,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="57.6">
       <c r="A39" s="9" t="s">
         <v>875</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="9" t="s">
         <v>875</v>
       </c>
@@ -14469,7 +14468,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="57.6">
       <c r="A41" s="9" t="s">
         <v>875</v>
       </c>
@@ -14486,7 +14485,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="9" t="s">
         <v>875</v>
       </c>
@@ -14503,7 +14502,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="9" t="s">
         <v>875</v>
       </c>
@@ -14520,7 +14519,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="9" t="s">
         <v>875</v>
       </c>
@@ -14537,7 +14536,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="9" t="s">
         <v>875</v>
       </c>
@@ -14554,7 +14553,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="28.8">
       <c r="A46" s="9" t="s">
         <v>875</v>
       </c>
@@ -14571,7 +14570,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="26" t="s">
         <v>906</v>
       </c>
@@ -14588,7 +14587,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="26" t="s">
         <v>906</v>
       </c>
@@ -14605,7 +14604,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="26" t="s">
         <v>906</v>
       </c>
@@ -14622,7 +14621,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="26" t="s">
         <v>906</v>
       </c>
@@ -14639,7 +14638,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="28.8">
       <c r="A51" s="26" t="s">
         <v>906</v>
       </c>
@@ -14656,7 +14655,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="28.8">
       <c r="A52" s="26" t="s">
         <v>906</v>
       </c>
@@ -14673,7 +14672,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="43.2">
       <c r="A53" s="26" t="s">
         <v>906</v>
       </c>
@@ -14690,7 +14689,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="26" t="s">
         <v>906</v>
       </c>
@@ -14707,7 +14706,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="26" t="s">
         <v>906</v>
       </c>
@@ -14724,7 +14723,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="28.8">
       <c r="A56" s="26" t="s">
         <v>906</v>
       </c>
@@ -14741,7 +14740,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="26" t="s">
         <v>906</v>
       </c>
@@ -14758,7 +14757,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>925</v>
       </c>
@@ -14775,7 +14774,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>925</v>
       </c>
@@ -14792,7 +14791,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
         <v>925</v>
       </c>
@@ -14809,7 +14808,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
         <v>925</v>
       </c>
@@ -14826,7 +14825,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="199.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="199.8" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>925</v>
       </c>
@@ -14843,7 +14842,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="55.2">
       <c r="A63" s="3" t="s">
         <v>925</v>
       </c>
@@ -14860,7 +14859,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="172.8" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>925</v>
       </c>
@@ -14877,7 +14876,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="57.6">
       <c r="A65" s="3" t="s">
         <v>925</v>
       </c>
@@ -14894,7 +14893,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="28.8">
       <c r="A66" s="3" t="s">
         <v>925</v>
       </c>
@@ -14911,7 +14910,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
         <v>925</v>
       </c>
@@ -14928,7 +14927,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>925</v>
       </c>
@@ -14945,7 +14944,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>925</v>
       </c>
@@ -14962,7 +14961,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
         <v>925</v>
       </c>
@@ -14979,7 +14978,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>925</v>
       </c>
@@ -14996,7 +14995,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="15.6" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>925</v>
       </c>
@@ -15013,7 +15012,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>925</v>
       </c>
@@ -15030,7 +15029,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="43.2">
       <c r="A74" s="3" t="s">
         <v>925</v>
       </c>
@@ -15047,7 +15046,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="28.8">
       <c r="A75" s="3" t="s">
         <v>925</v>
       </c>
@@ -15064,7 +15063,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="86.4">
       <c r="A76" s="3" t="s">
         <v>925</v>
       </c>
@@ -15081,7 +15080,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="86.4">
       <c r="A77" s="3" t="s">
         <v>925</v>
       </c>
@@ -15098,7 +15097,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>925</v>
       </c>
@@ -15115,7 +15114,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="86.4">
       <c r="A79" s="3" t="s">
         <v>925</v>
       </c>
@@ -15132,7 +15131,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="57.6">
       <c r="A80" s="3" t="s">
         <v>925</v>
       </c>
@@ -15149,7 +15148,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="57.6">
       <c r="A81" s="3" t="s">
         <v>925</v>
       </c>
@@ -15166,7 +15165,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="43.2">
       <c r="A82" s="3" t="s">
         <v>925</v>
       </c>
@@ -15183,7 +15182,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="43.2">
       <c r="A83" s="3" t="s">
         <v>925</v>
       </c>
@@ -15200,7 +15199,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="28.8">
       <c r="A84" s="3" t="s">
         <v>925</v>
       </c>
@@ -15217,7 +15216,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="28.8">
       <c r="A85" s="3" t="s">
         <v>925</v>
       </c>
@@ -15234,7 +15233,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" s="3" t="s">
         <v>925</v>
       </c>
@@ -15251,7 +15250,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="28.8">
       <c r="A87" s="3" t="s">
         <v>925</v>
       </c>
@@ -15268,7 +15267,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" s="40" t="s">
         <v>972</v>
       </c>
@@ -15285,7 +15284,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" s="9" t="s">
         <v>972</v>
       </c>
@@ -15302,7 +15301,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" s="9" t="s">
         <v>972</v>
       </c>
@@ -15319,7 +15318,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91" s="9" t="s">
         <v>972</v>
       </c>
@@ -15336,7 +15335,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="28.8">
       <c r="A92" s="9" t="s">
         <v>972</v>
       </c>
@@ -15353,7 +15352,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93" s="9" t="s">
         <v>972</v>
       </c>
@@ -15370,7 +15369,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94" s="9" t="s">
         <v>972</v>
       </c>
@@ -15387,7 +15386,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95" s="9" t="s">
         <v>972</v>
       </c>
@@ -15404,7 +15403,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="28.8">
       <c r="A96" s="9" t="s">
         <v>972</v>
       </c>
@@ -15421,7 +15420,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97" s="6" t="s">
         <v>988</v>
       </c>
@@ -15438,7 +15437,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98" s="6" t="s">
         <v>988</v>
       </c>
@@ -15455,7 +15454,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99" s="6" t="s">
         <v>988</v>
       </c>
@@ -15472,7 +15471,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100" s="6" t="s">
         <v>988</v>
       </c>
@@ -15489,7 +15488,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5">
       <c r="A101" s="6" t="s">
         <v>988</v>
       </c>
@@ -15506,7 +15505,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102" s="6" t="s">
         <v>988</v>
       </c>
@@ -15523,7 +15522,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5">
       <c r="A103" s="6" t="s">
         <v>988</v>
       </c>
@@ -15540,7 +15539,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5">
       <c r="A104" s="6" t="s">
         <v>988</v>
       </c>
@@ -15557,7 +15556,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105" s="6" t="s">
         <v>988</v>
       </c>
@@ -15574,7 +15573,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5">
       <c r="A106" s="6" t="s">
         <v>988</v>
       </c>
@@ -15591,7 +15590,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5">
       <c r="A107" s="6" t="s">
         <v>988</v>
       </c>
@@ -15608,7 +15607,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="43.2">
       <c r="A108" s="6" t="s">
         <v>988</v>
       </c>
@@ -15625,7 +15624,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5">
       <c r="A109" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15642,7 +15641,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5">
       <c r="A110" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15659,7 +15658,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5">
       <c r="A111" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15676,7 +15675,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5">
       <c r="A112" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15693,7 +15692,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15710,7 +15709,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5">
       <c r="A114" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15727,7 +15726,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5">
       <c r="A115" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15744,7 +15743,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5">
       <c r="A116" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15761,7 +15760,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5">
       <c r="A117" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15778,7 +15777,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5">
       <c r="A118" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15795,7 +15794,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5">
       <c r="A119" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15812,7 +15811,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5">
       <c r="A120" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15829,7 +15828,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5">
       <c r="A121" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15846,7 +15845,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5">
       <c r="A122" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15863,7 +15862,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="108.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="108.6">
       <c r="A123" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15880,7 +15879,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="108.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="108.6">
       <c r="A124" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15897,7 +15896,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="28.8">
       <c r="A125" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15914,7 +15913,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="28.8">
       <c r="A126" s="26" t="s">
         <v>1012</v>
       </c>
@@ -15931,7 +15930,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="28.8">
       <c r="A127" s="9" t="s">
         <v>1049</v>
       </c>
@@ -15948,7 +15947,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="28.8">
       <c r="A128" s="9" t="s">
         <v>1049</v>
       </c>
@@ -15965,7 +15964,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="28.8">
       <c r="A129" s="9" t="s">
         <v>1049</v>
       </c>
@@ -15982,7 +15981,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="28.8">
       <c r="A130" s="9" t="s">
         <v>1049</v>
       </c>
@@ -15999,7 +15998,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5">
       <c r="A131" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16016,7 +16015,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5">
       <c r="A132" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16033,7 +16032,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="43.2">
       <c r="A133" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16050,7 +16049,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="43.2">
       <c r="A134" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16067,7 +16066,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="28.8">
       <c r="A135" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16084,7 +16083,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="28.8">
       <c r="A136" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16101,7 +16100,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="28.8">
       <c r="A137" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16118,7 +16117,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="28.8">
       <c r="A138" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16135,7 +16134,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="28.8">
       <c r="A139" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16152,7 +16151,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="28.8">
       <c r="A140" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16169,7 +16168,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5">
       <c r="A141" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16186,7 +16185,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5">
       <c r="A142" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16203,7 +16202,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="57.6">
       <c r="A143" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16220,7 +16219,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="43.2">
       <c r="A144" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16237,7 +16236,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5">
       <c r="A145" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16254,7 +16253,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5">
       <c r="A146" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16271,7 +16270,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5">
       <c r="A147" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16288,7 +16287,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5">
       <c r="A148" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16305,7 +16304,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5">
       <c r="A149" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16322,7 +16321,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5">
       <c r="A150" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16339,7 +16338,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="28.8">
       <c r="A151" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16356,7 +16355,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="28.8">
       <c r="A152" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16373,7 +16372,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5">
       <c r="A153" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16390,7 +16389,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5">
       <c r="A154" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16407,7 +16406,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5">
       <c r="A155" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16424,7 +16423,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5">
       <c r="A156" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16441,7 +16440,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="28.8">
       <c r="A157" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16458,7 +16457,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="28.8">
       <c r="A158" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16475,7 +16474,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="28.8">
       <c r="A159" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16492,7 +16491,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5">
       <c r="A160" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16509,7 +16508,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="28.8">
       <c r="A161" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16526,7 +16525,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5">
       <c r="A162" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16543,7 +16542,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5">
       <c r="A163" s="6" t="s">
         <v>1105</v>
       </c>
@@ -16560,7 +16559,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5">
       <c r="A164" s="6" t="s">
         <v>1105</v>
       </c>
@@ -16577,7 +16576,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="28.8">
       <c r="A165" s="6" t="s">
         <v>1105</v>
       </c>
@@ -16594,7 +16593,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5">
       <c r="A166" s="6" t="s">
         <v>1105</v>
       </c>
@@ -16611,7 +16610,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="28.8">
       <c r="A167" s="6" t="s">
         <v>1105</v>
       </c>
@@ -16628,7 +16627,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5">
       <c r="A168" s="3" t="s">
         <v>1115</v>
       </c>
@@ -16645,7 +16644,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5">
       <c r="A169" s="3" t="s">
         <v>1115</v>
       </c>
@@ -16662,7 +16661,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5">
       <c r="A170" s="3" t="s">
         <v>1115</v>
       </c>
@@ -16679,7 +16678,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5">
       <c r="A171" s="3" t="s">
         <v>1115</v>
       </c>
@@ -16696,7 +16695,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5">
       <c r="A172" s="3" t="s">
         <v>1115</v>
       </c>
@@ -16713,7 +16712,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5">
       <c r="A173" s="3" t="s">
         <v>1115</v>
       </c>
@@ -16730,7 +16729,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="82.8">
       <c r="A174" s="26" t="s">
         <v>1128</v>
       </c>
@@ -16747,7 +16746,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="28.8">
       <c r="A175" s="26" t="s">
         <v>1128</v>
       </c>
@@ -16764,7 +16763,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="43.2">
       <c r="A176" s="26" t="s">
         <v>1128</v>
       </c>
@@ -16781,7 +16780,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="28.8">
       <c r="A177" s="26" t="s">
         <v>1128</v>
       </c>
@@ -16798,7 +16797,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="43.2">
       <c r="A178" s="26" t="s">
         <v>1128</v>
       </c>
@@ -16815,7 +16814,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="28.8">
       <c r="A179" s="26" t="s">
         <v>1128</v>
       </c>
@@ -16832,7 +16831,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="57.6">
       <c r="A180" s="26" t="s">
         <v>1128</v>
       </c>
@@ -16849,7 +16848,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="28.8">
       <c r="A181" s="26" t="s">
         <v>1128</v>
       </c>
@@ -16866,7 +16865,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="28.8">
       <c r="A182" s="26" t="s">
         <v>1128</v>
       </c>
@@ -16883,7 +16882,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="129.6">
       <c r="A183" s="36" t="s">
         <v>1145</v>
       </c>
@@ -16900,7 +16899,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5">
       <c r="A184" s="3" t="s">
         <v>1145</v>
       </c>
@@ -16917,7 +16916,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="57.6">
       <c r="A185" s="3" t="s">
         <v>1145</v>
       </c>
@@ -16934,7 +16933,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="57.6">
       <c r="A186" s="3" t="s">
         <v>1145</v>
       </c>
@@ -16951,7 +16950,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5">
       <c r="A187" s="3" t="s">
         <v>1145</v>
       </c>
@@ -16966,7 +16965,7 @@
       </c>
       <c r="E187" s="38"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5">
       <c r="A188" s="3" t="s">
         <v>1145</v>
       </c>
@@ -16981,7 +16980,7 @@
       </c>
       <c r="E188" s="38"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5">
       <c r="A189" s="6" t="s">
         <v>1156</v>
       </c>
@@ -16998,7 +16997,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5">
       <c r="A190" s="6" t="s">
         <v>1156</v>
       </c>
@@ -17015,7 +17014,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5">
       <c r="A191" s="6" t="s">
         <v>1156</v>
       </c>
@@ -17032,7 +17031,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5">
       <c r="A192" s="6" t="s">
         <v>1156</v>
       </c>
@@ -17049,7 +17048,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="28.8">
       <c r="A193" s="9" t="s">
         <v>1165</v>
       </c>
@@ -17066,7 +17065,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="28.8">
       <c r="A194" s="9" t="s">
         <v>1165</v>
       </c>
@@ -17083,7 +17082,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="28.8">
       <c r="A195" s="9" t="s">
         <v>1165</v>
       </c>
@@ -17100,7 +17099,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="28.8">
       <c r="A196" s="9" t="s">
         <v>1165</v>
       </c>
@@ -17117,7 +17116,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="28.8">
       <c r="A197" s="9" t="s">
         <v>1165</v>
       </c>
@@ -17134,7 +17133,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="28.8">
       <c r="A198" s="9" t="s">
         <v>1165</v>
       </c>
@@ -17151,7 +17150,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="28.8">
       <c r="A199" s="9" t="s">
         <v>1165</v>
       </c>
@@ -17168,7 +17167,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="28.8">
       <c r="A200" s="9" t="s">
         <v>1165</v>
       </c>
@@ -17185,7 +17184,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="28.8">
       <c r="A201" s="9" t="s">
         <v>1165</v>
       </c>
@@ -17202,7 +17201,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="28.8">
       <c r="A202" s="9" t="s">
         <v>1165</v>
       </c>
@@ -17219,7 +17218,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="28.8">
       <c r="A203" s="9" t="s">
         <v>1165</v>
       </c>
@@ -17236,7 +17235,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="28.8">
       <c r="A204" s="9" t="s">
         <v>1165</v>
       </c>
@@ -17260,7 +17259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -17268,7 +17267,7 @@
       <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -17277,7 +17276,7 @@
     <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -17294,7 +17293,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -17311,7 +17310,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -17328,7 +17327,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -17345,7 +17344,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -17362,7 +17361,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="43.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -17379,7 +17378,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -17396,7 +17395,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -17413,7 +17412,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -17430,7 +17429,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="28.8">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -17447,7 +17446,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="28.8">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -17464,7 +17463,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -17481,7 +17480,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -17498,7 +17497,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="28.8">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -17515,7 +17514,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.8">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -17532,7 +17531,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -17549,7 +17548,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -17566,7 +17565,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -17583,7 +17582,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -17600,7 +17599,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -17617,7 +17616,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -17634,7 +17633,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -17651,7 +17650,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -17668,7 +17667,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
@@ -17685,7 +17684,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
@@ -17702,7 +17701,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="28.8">
       <c r="A26" s="6" t="s">
         <v>17</v>
       </c>
@@ -17719,7 +17718,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="22" t="s">
         <v>875</v>
       </c>
@@ -17736,7 +17735,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="22" t="s">
         <v>875</v>
       </c>
@@ -17753,7 +17752,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="22" t="s">
         <v>875</v>
       </c>
@@ -17770,7 +17769,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="22" t="s">
         <v>875</v>
       </c>
@@ -17787,7 +17786,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="22" t="s">
         <v>875</v>
       </c>
@@ -17804,7 +17803,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="28.8">
       <c r="A32" s="22" t="s">
         <v>875</v>
       </c>
@@ -17821,7 +17820,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="22" t="s">
         <v>875</v>
       </c>
@@ -17838,7 +17837,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="28.8">
       <c r="A34" s="22" t="s">
         <v>875</v>
       </c>
@@ -17855,7 +17854,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="22" t="s">
         <v>875</v>
       </c>
@@ -17872,7 +17871,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="22" t="s">
         <v>875</v>
       </c>
@@ -17889,7 +17888,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>108</v>
       </c>
@@ -17906,7 +17905,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>108</v>
       </c>
@@ -17923,7 +17922,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>108</v>
       </c>
@@ -17940,7 +17939,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>108</v>
       </c>
@@ -17957,7 +17956,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>108</v>
       </c>
@@ -17974,7 +17973,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>108</v>
       </c>
@@ -17991,7 +17990,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>108</v>
       </c>
@@ -18008,7 +18007,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>108</v>
       </c>
@@ -18025,7 +18024,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>108</v>
       </c>
@@ -18042,7 +18041,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>108</v>
       </c>
@@ -18059,7 +18058,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>108</v>
       </c>
@@ -18076,7 +18075,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="28.8">
       <c r="A48" s="3" t="s">
         <v>108</v>
       </c>
@@ -18093,7 +18092,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -18110,7 +18109,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="28.8">
       <c r="A50" s="3" t="s">
         <v>108</v>
       </c>
@@ -18127,7 +18126,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="28.8">
       <c r="A51" s="3" t="s">
         <v>108</v>
       </c>
@@ -18144,7 +18143,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
         <v>108</v>
       </c>
@@ -18161,7 +18160,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="72">
       <c r="A53" s="3" t="s">
         <v>108</v>
       </c>
@@ -18178,7 +18177,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="72">
       <c r="A54" s="3" t="s">
         <v>108</v>
       </c>
@@ -18195,7 +18194,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="196.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="196.8" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>108</v>
       </c>
@@ -18212,7 +18211,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="200.4" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>108</v>
       </c>
@@ -18229,7 +18228,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
         <v>108</v>
       </c>
@@ -18244,7 +18243,7 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="72">
       <c r="A58" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18261,7 +18260,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="57.6">
       <c r="A59" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18278,7 +18277,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="28.8">
       <c r="A60" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18295,7 +18294,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="57.6">
       <c r="A61" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18312,7 +18311,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="192.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="132.6">
       <c r="A62" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18329,7 +18328,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="120.6">
       <c r="A63" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18346,7 +18345,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="142.19999999999999" customHeight="1">
       <c r="A64" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18363,7 +18362,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="154.19999999999999" customHeight="1">
       <c r="A65" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18380,7 +18379,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="43.2">
       <c r="A66" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18397,7 +18396,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="28.8">
       <c r="A67" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18414,7 +18413,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="144">
       <c r="A68" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18431,7 +18430,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="115.2">
       <c r="A69" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18448,7 +18447,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="108.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="108.6">
       <c r="A70" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18465,7 +18464,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="132.6">
       <c r="A71" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18482,7 +18481,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="108.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="108.6">
       <c r="A72" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18499,7 +18498,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18512,7 +18511,7 @@
       <c r="D73" s="47"/>
       <c r="E73" s="28"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" s="26" t="s">
         <v>1604</v>
       </c>
@@ -18527,7 +18526,7 @@
       </c>
       <c r="E74" s="28"/>
     </row>
-    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="28.8">
       <c r="A75" s="12" t="s">
         <v>1645</v>
       </c>
@@ -18544,7 +18543,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" s="12" t="s">
         <v>1645</v>
       </c>
@@ -18561,7 +18560,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" s="12" t="s">
         <v>1645</v>
       </c>
@@ -18578,7 +18577,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="57.6">
       <c r="A78" s="12" t="s">
         <v>1645</v>
       </c>
@@ -18595,7 +18594,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="108" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="108">
       <c r="A79" s="12" t="s">
         <v>1645</v>
       </c>
@@ -18612,7 +18611,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" s="12" t="s">
         <v>1645</v>
       </c>
@@ -18629,7 +18628,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" s="12" t="s">
         <v>1645</v>
       </c>
@@ -18644,7 +18643,7 @@
       </c>
       <c r="E81" s="14"/>
     </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="28.8">
       <c r="A82" s="6" t="s">
         <v>925</v>
       </c>
@@ -18661,7 +18660,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" s="6" t="s">
         <v>925</v>
       </c>
@@ -18678,7 +18677,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="28.8">
       <c r="A84" s="6" t="s">
         <v>925</v>
       </c>
@@ -18695,7 +18694,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="28.8">
       <c r="A85" s="6" t="s">
         <v>925</v>
       </c>
@@ -18712,7 +18711,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" s="6" t="s">
         <v>925</v>
       </c>
@@ -18729,7 +18728,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" s="6" t="s">
         <v>925</v>
       </c>
@@ -18746,7 +18745,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="28.8">
       <c r="A88" s="9" t="s">
         <v>1665</v>
       </c>
@@ -18763,7 +18762,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" s="9" t="s">
         <v>1665</v>
       </c>
@@ -18780,7 +18779,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" s="9" t="s">
         <v>1665</v>
       </c>
@@ -18797,7 +18796,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="28.8">
       <c r="A91" s="9" t="s">
         <v>1665</v>
       </c>
@@ -18821,7 +18820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -18829,7 +18828,7 @@
       <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -18838,7 +18837,7 @@
     <col min="5" max="5" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -18855,7 +18854,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -18872,7 +18871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -18889,7 +18888,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -18906,7 +18905,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28.8">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -18923,7 +18922,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -18940,7 +18939,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -18957,7 +18956,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -18974,7 +18973,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -18991,7 +18990,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>875</v>
       </c>
@@ -19008,7 +19007,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>875</v>
       </c>
@@ -19025,7 +19024,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="28.8">
       <c r="A12" s="6" t="s">
         <v>875</v>
       </c>
@@ -19042,7 +19041,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>875</v>
       </c>
@@ -19059,7 +19058,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="28.8">
       <c r="A14" s="6" t="s">
         <v>875</v>
       </c>
@@ -19076,7 +19075,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.8">
       <c r="A15" s="6" t="s">
         <v>875</v>
       </c>
@@ -19093,7 +19092,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.8">
       <c r="A16" s="6" t="s">
         <v>875</v>
       </c>
@@ -19110,7 +19109,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>875</v>
       </c>
@@ -19125,7 +19124,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="28.8">
       <c r="A18" s="9" t="s">
         <v>183</v>
       </c>
@@ -19142,7 +19141,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="28.8">
       <c r="A19" s="9" t="s">
         <v>183</v>
       </c>
@@ -19159,7 +19158,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="28.8">
       <c r="A20" s="9" t="s">
         <v>183</v>
       </c>
@@ -19176,7 +19175,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="28.8">
       <c r="A21" s="9" t="s">
         <v>183</v>
       </c>
@@ -19193,7 +19192,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="28.8">
       <c r="A22" s="9" t="s">
         <v>183</v>
       </c>
@@ -19210,7 +19209,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
         <v>183</v>
       </c>
@@ -19227,7 +19226,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="28.8">
       <c r="A24" s="3" t="s">
         <v>238</v>
       </c>
@@ -19244,7 +19243,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>238</v>
       </c>
@@ -19261,7 +19260,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="28.8">
       <c r="A26" s="3" t="s">
         <v>238</v>
       </c>
@@ -19278,7 +19277,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>238</v>
       </c>
@@ -19295,7 +19294,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="28.8">
       <c r="A28" s="3" t="s">
         <v>238</v>
       </c>
@@ -19312,7 +19311,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
         <v>238</v>
       </c>
@@ -19329,7 +19328,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>238</v>
       </c>
@@ -19346,7 +19345,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="28.8">
       <c r="A31" s="3" t="s">
         <v>238</v>
       </c>
@@ -19363,7 +19362,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
         <v>238</v>
       </c>
@@ -19380,7 +19379,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="28.8">
       <c r="A33" s="3" t="s">
         <v>238</v>
       </c>
@@ -19397,7 +19396,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
         <v>238</v>
       </c>
@@ -19414,7 +19413,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="28.8">
       <c r="A35" s="3" t="s">
         <v>238</v>
       </c>
@@ -19431,7 +19430,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>238</v>
       </c>
@@ -19448,7 +19447,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="28.8">
       <c r="A37" s="3" t="s">
         <v>238</v>
       </c>
@@ -19465,7 +19464,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>238</v>
       </c>
@@ -19482,7 +19481,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
         <v>1853</v>
       </c>
@@ -19499,7 +19498,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
         <v>1853</v>
       </c>
@@ -19516,7 +19515,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="6" t="s">
         <v>1853</v>
       </c>
@@ -19533,7 +19532,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="6" t="s">
         <v>1853</v>
       </c>
@@ -19550,7 +19549,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="28.8">
       <c r="A43" s="6" t="s">
         <v>1853</v>
       </c>
@@ -19567,7 +19566,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="28.8">
       <c r="A44" s="6" t="s">
         <v>1853</v>
       </c>
@@ -19584,7 +19583,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="28.8">
       <c r="A45" s="6" t="s">
         <v>1853</v>
       </c>
@@ -19601,7 +19600,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="28.8">
       <c r="A46" s="6" t="s">
         <v>1853</v>
       </c>
@@ -19618,7 +19617,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="9" t="s">
         <v>1875</v>
       </c>
@@ -19635,7 +19634,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="9" t="s">
         <v>1875</v>
       </c>
@@ -19652,7 +19651,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="9" t="s">
         <v>1875</v>
       </c>
@@ -19669,7 +19668,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="9" t="s">
         <v>1875</v>
       </c>
@@ -19686,7 +19685,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="9" t="s">
         <v>1875</v>
       </c>
@@ -19703,7 +19702,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="26" t="s">
         <v>1888</v>
       </c>
@@ -19720,7 +19719,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="26" t="s">
         <v>1888</v>
       </c>
@@ -19737,7 +19736,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="26" t="s">
         <v>1888</v>
       </c>
@@ -19754,7 +19753,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="26" t="s">
         <v>1888</v>
       </c>
@@ -19771,7 +19770,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="26" t="s">
         <v>1888</v>
       </c>
@@ -19788,7 +19787,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="26" t="s">
         <v>1888</v>
       </c>
@@ -19805,7 +19804,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="26" t="s">
         <v>1888</v>
       </c>
@@ -19822,7 +19821,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="26" t="s">
         <v>1888</v>
       </c>
@@ -19839,7 +19838,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
         <v>1905</v>
       </c>
@@ -19856,7 +19855,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
         <v>1905</v>
       </c>
@@ -19873,7 +19872,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
         <v>1905</v>
       </c>
@@ -19890,7 +19889,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="28.8">
       <c r="A63" s="3" t="s">
         <v>1905</v>
       </c>
@@ -19907,7 +19906,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="28.8">
       <c r="A64" s="3" t="s">
         <v>1905</v>
       </c>
@@ -19924,7 +19923,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
         <v>1905</v>
       </c>
@@ -19941,7 +19940,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>1905</v>
       </c>
@@ -19958,7 +19957,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
         <v>1905</v>
       </c>
@@ -19975,7 +19974,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>1905</v>
       </c>
@@ -19992,7 +19991,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>1905</v>
       </c>
@@ -20009,7 +20008,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
         <v>1905</v>
       </c>
@@ -20026,7 +20025,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>1905</v>
       </c>
@@ -20043,7 +20042,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
         <v>1905</v>
       </c>
@@ -20060,7 +20059,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>1905</v>
       </c>
@@ -20077,7 +20076,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" s="6" t="s">
         <v>163</v>
       </c>
@@ -20094,7 +20093,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" s="6" t="s">
         <v>163</v>
       </c>
@@ -20111,7 +20110,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" s="6" t="s">
         <v>163</v>
       </c>
@@ -20128,7 +20127,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" s="6" t="s">
         <v>163</v>
       </c>
@@ -20145,7 +20144,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="28.8">
       <c r="A78" s="6" t="s">
         <v>163</v>
       </c>
@@ -20162,7 +20161,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" s="6" t="s">
         <v>163</v>
       </c>
@@ -20179,7 +20178,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" s="6" t="s">
         <v>163</v>
       </c>
@@ -20196,7 +20195,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="28.8">
       <c r="A81" s="6" t="s">
         <v>163</v>
       </c>
@@ -20213,7 +20212,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" s="6" t="s">
         <v>163</v>
       </c>
@@ -20230,7 +20229,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" s="6" t="s">
         <v>163</v>
       </c>
@@ -20247,7 +20246,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="28.8">
       <c r="A84" s="6" t="s">
         <v>163</v>
       </c>
@@ -20264,7 +20263,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" s="6" t="s">
         <v>163</v>
       </c>
@@ -20281,7 +20280,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="28.8">
       <c r="A86" s="6" t="s">
         <v>163</v>
       </c>
@@ -20298,7 +20297,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" s="6" t="s">
         <v>163</v>
       </c>
@@ -20321,7 +20320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -20329,7 +20328,7 @@
       <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -20338,7 +20337,7 @@
     <col min="5" max="5" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -20355,7 +20354,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1983</v>
       </c>
@@ -20372,7 +20371,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>1983</v>
       </c>
@@ -20389,7 +20388,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>1983</v>
       </c>
@@ -20406,7 +20405,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>1990</v>
       </c>
@@ -20423,7 +20422,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>1990</v>
       </c>
@@ -20440,7 +20439,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>1990</v>
       </c>
@@ -20457,7 +20456,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>1990</v>
       </c>
@@ -20474,7 +20473,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>1990</v>
       </c>
@@ -20491,7 +20490,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>1990</v>
       </c>
@@ -20508,7 +20507,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>1990</v>
       </c>
@@ -20525,7 +20524,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>1990</v>
       </c>
@@ -20542,7 +20541,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
         <v>2014</v>
       </c>
@@ -20559,7 +20558,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="28.8">
       <c r="A14" s="9" t="s">
         <v>2014</v>
       </c>
@@ -20576,7 +20575,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
         <v>2014</v>
       </c>
@@ -20593,7 +20592,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
         <v>2014</v>
       </c>
@@ -20610,7 +20609,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="9" t="s">
         <v>2014</v>
       </c>
@@ -20627,7 +20626,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
         <v>2014</v>
       </c>
@@ -20644,7 +20643,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="28.8">
       <c r="A19" s="9" t="s">
         <v>2014</v>
       </c>
@@ -20661,7 +20660,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
         <v>2014</v>
       </c>
@@ -20678,7 +20677,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="28.8">
       <c r="A21" s="26" t="s">
         <v>2035</v>
       </c>
@@ -20695,7 +20694,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="28.8">
       <c r="A22" s="26" t="s">
         <v>2035</v>
       </c>
@@ -20712,7 +20711,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="26" t="s">
         <v>2035</v>
       </c>
@@ -20729,7 +20728,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="28.8">
       <c r="A24" s="26" t="s">
         <v>2035</v>
       </c>
@@ -20746,7 +20745,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="26" t="s">
         <v>2035</v>
       </c>
@@ -20763,7 +20762,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="28.8">
       <c r="A26" s="61" t="s">
         <v>925</v>
       </c>
@@ -20780,7 +20779,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="61" t="s">
         <v>925</v>
       </c>
@@ -20797,7 +20796,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="28.8">
       <c r="A28" s="61" t="s">
         <v>925</v>
       </c>
@@ -20814,7 +20813,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="61" t="s">
         <v>925</v>
       </c>
@@ -20831,7 +20830,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="28.8">
       <c r="A30" s="61" t="s">
         <v>925</v>
       </c>
@@ -20848,7 +20847,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="61" t="s">
         <v>925</v>
       </c>
@@ -20865,7 +20864,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="28.8">
       <c r="A32" s="61" t="s">
         <v>925</v>
       </c>
@@ -20882,7 +20881,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="61" t="s">
         <v>925</v>
       </c>
@@ -20899,7 +20898,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="28.8">
       <c r="A34" s="61" t="s">
         <v>925</v>
       </c>
@@ -20916,7 +20915,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="61" t="s">
         <v>925</v>
       </c>
@@ -20933,7 +20932,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="26" t="s">
         <v>1908</v>
       </c>
@@ -20950,7 +20949,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="26" t="s">
         <v>1908</v>
       </c>
@@ -20967,7 +20966,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="26" t="s">
         <v>1908</v>
       </c>
@@ -20984,7 +20983,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="26" t="s">
         <v>1908</v>
       </c>
@@ -21001,7 +21000,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="26" t="s">
         <v>1908</v>
       </c>
@@ -21018,7 +21017,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="26" t="s">
         <v>1908</v>
       </c>
@@ -21035,7 +21034,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="26" t="s">
         <v>1908</v>
       </c>
@@ -21052,7 +21051,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>108</v>
       </c>
@@ -21069,7 +21068,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>108</v>
       </c>
@@ -21086,7 +21085,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="28.8">
       <c r="A45" s="3" t="s">
         <v>108</v>
       </c>
@@ -21103,7 +21102,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="28.8">
       <c r="A46" s="3" t="s">
         <v>108</v>
       </c>
@@ -21120,7 +21119,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="6" t="s">
         <v>2102</v>
       </c>
@@ -21137,7 +21136,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="6" t="s">
         <v>2102</v>
       </c>
@@ -21161,7 +21160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -21169,7 +21168,7 @@
       <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -21178,7 +21177,7 @@
     <col min="5" max="5" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -21195,7 +21194,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -21212,7 +21211,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -21229,7 +21228,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -21246,7 +21245,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -21263,7 +21262,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -21280,7 +21279,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -21297,7 +21296,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28.8">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -21314,7 +21313,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>875</v>
       </c>
@@ -21331,7 +21330,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>875</v>
       </c>
@@ -21348,7 +21347,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>875</v>
       </c>
@@ -21365,7 +21364,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>875</v>
       </c>
@@ -21382,7 +21381,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="28.8">
       <c r="A13" s="6" t="s">
         <v>875</v>
       </c>
@@ -21399,7 +21398,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
         <v>875</v>
       </c>
@@ -21416,7 +21415,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.8">
       <c r="A15" s="9" t="s">
         <v>925</v>
       </c>
@@ -21433,7 +21432,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.8">
       <c r="A16" s="9" t="s">
         <v>925</v>
       </c>
@@ -21450,7 +21449,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="28.8">
       <c r="A17" s="9" t="s">
         <v>925</v>
       </c>
@@ -21467,7 +21466,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
         <v>925</v>
       </c>
@@ -21482,7 +21481,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="28.8">
       <c r="A19" s="9" t="s">
         <v>925</v>
       </c>
@@ -21499,7 +21498,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
         <v>925</v>
       </c>
@@ -21516,7 +21515,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="26" t="s">
         <v>108</v>
       </c>
@@ -21533,7 +21532,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="26" t="s">
         <v>108</v>
       </c>
@@ -21550,7 +21549,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="26" t="s">
         <v>108</v>
       </c>
@@ -21567,7 +21566,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="26" t="s">
         <v>108</v>
       </c>
@@ -21584,7 +21583,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="28.8">
       <c r="A25" s="26" t="s">
         <v>108</v>
       </c>
@@ -21601,7 +21600,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="28.8">
       <c r="A26" s="26" t="s">
         <v>108</v>
       </c>
@@ -21618,7 +21617,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="28.8">
       <c r="A27" s="26" t="s">
         <v>108</v>
       </c>
@@ -21635,7 +21634,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="26" t="s">
         <v>108</v>
       </c>
@@ -21652,7 +21651,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="26" t="s">
         <v>108</v>
       </c>
@@ -21669,7 +21668,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="61" t="s">
         <v>2137</v>
       </c>
@@ -21686,7 +21685,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="61" t="s">
         <v>2137</v>
       </c>
@@ -21703,7 +21702,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="61" t="s">
         <v>2137</v>
       </c>
@@ -21720,7 +21719,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="61" t="s">
         <v>2137</v>
       </c>
@@ -21737,7 +21736,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
         <v>1908</v>
       </c>
@@ -21754,7 +21753,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
         <v>1908</v>
       </c>
@@ -21771,7 +21770,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="28.8">
       <c r="A36" s="3" t="s">
         <v>2145</v>
       </c>
@@ -21788,7 +21787,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>2145</v>
       </c>
@@ -21805,7 +21804,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>2145</v>
       </c>
